--- a/biology/Botanique/Taxodiaceae/Taxodiaceae.xlsx
+++ b/biology/Botanique/Taxodiaceae/Taxodiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Taxodiaceae (Taxodiacées) sont une famille de conifères de l'ordre des Pinales; elle compte en classification classique :
 Selon GRIN (14 espèces réparties en 10 genres) :
@@ -531,7 +543,9 @@
           <t>Paléobotanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seize troncs d'arbres morts, dont plusieurs espèces de la famille des Taxodiaceae, parfaitement conservés depuis le Miocène (plus précisément du Tortonien — une époque où le continent européen était partiellement submergé par les eaux —) ont été trouvés en 2007 au fond d'une immense crevasse profonde de 60 mètres situé dans la mine de lignite à ciel ouvert de Bukkabrany à 160 km au nord-est de Budapest, la capitale de la Hongrie. L'intérêt de cette découverte réside dans le fait que ces arbres, vieux d'environ 7 millions d'années ne sont ni carbonisés, ni fossilisés, mais ont gardé toute leur structure en bois.
 Ces seize fragments d'arbres, situés dans un petit périmètre de moins de 100 m2, ont une hauteur de 4 à 6 mètres pour un diamètre de 1,5 à 3 mètres. Leur taille devait approcher les 30 ou 40 mètres. Les troncs ont été conservés dans leur forme et leur matière originales grâce à une conservation exceptionnelle, sinon miraculeuse, due au fait qu'ils ont été rapidement recouverts par une couche de sable gris de près de 6 m d'épaisseur, elle-même surmontée d'une fine couche de sable jaune. La conservation est due à l'absence de bactéries dans cette couche de sable gris ; le bois original ne s'est pas non plus fossilisé.
